--- a/1차_가공/고려대학교 세종캠퍼스 22년 1학기 1차 가공 완료.xlsx
+++ b/1차_가공/고려대학교 세종캠퍼스 22년 1학기 1차 가공 완료.xlsx
@@ -8458,7 +8458,7 @@
     <t>목(10-11)</t>
   </si>
   <si>
-    <t>화(13-14)화(13-14)화(13-14)</t>
+    <t>화(13-14),화(13-14),화(13-14)</t>
   </si>
   <si>
     <t>화(13-14)</t>
@@ -8479,7 +8479,7 @@
     <t>목(2-3)</t>
   </si>
   <si>
-    <t>화(5)화(7)</t>
+    <t>화(5),화(7)</t>
   </si>
   <si>
     <t>수(7-9)</t>
@@ -8698,16 +8698,16 @@
     <t>금(10-12)</t>
   </si>
   <si>
-    <t>목(2)목(9-10)</t>
-  </si>
-  <si>
-    <t>화(9)목(8)</t>
-  </si>
-  <si>
-    <t>화(3)목(6)</t>
-  </si>
-  <si>
-    <t>화(1)목(1)</t>
+    <t>목(2),목(9-10)</t>
+  </si>
+  <si>
+    <t>화(9),목(8)</t>
+  </si>
+  <si>
+    <t>화(3),목(6)</t>
+  </si>
+  <si>
+    <t>화(1),목(1)</t>
   </si>
   <si>
     <t>금(8-9)</t>
@@ -8716,304 +8716,304 @@
     <t>목(7-10)</t>
   </si>
   <si>
-    <t>월(7-8)목(4-5)</t>
-  </si>
-  <si>
-    <t>월(1-2)수(4-5)</t>
-  </si>
-  <si>
-    <t>화(3-4)목(1-2)</t>
-  </si>
-  <si>
-    <t>화(4-5)목(1-2)</t>
-  </si>
-  <si>
-    <t>화(1-2)목(7-8)</t>
-  </si>
-  <si>
-    <t>수(7-8)금(6-7)</t>
-  </si>
-  <si>
-    <t>화(7-8)금(1-2)</t>
-  </si>
-  <si>
-    <t>월(6-7)화(6-7)</t>
-  </si>
-  <si>
-    <t>월(4-5)수(1-2)</t>
-  </si>
-  <si>
-    <t>월(3-4)수(1-2)</t>
-  </si>
-  <si>
-    <t>수(7-8)금(2-3)</t>
-  </si>
-  <si>
-    <t>월(3-4)목(7-8)</t>
-  </si>
-  <si>
-    <t>화(3-4)목(3-4)</t>
-  </si>
-  <si>
-    <t>월(5-6)목(5-6)</t>
-  </si>
-  <si>
-    <t>수(7-8)금(1-2)</t>
-  </si>
-  <si>
-    <t>수(2-3)금(4-5)</t>
-  </si>
-  <si>
-    <t>수(1-2)금(4-5)</t>
-  </si>
-  <si>
-    <t>수(6-7)금(4-5)</t>
-  </si>
-  <si>
-    <t>화(1-2)금(6-7)</t>
-  </si>
-  <si>
-    <t>화(1-2)금(4-5)</t>
-  </si>
-  <si>
-    <t>월(4-5)화(7-8)</t>
-  </si>
-  <si>
-    <t>월(7-8)목(7-8)</t>
-  </si>
-  <si>
-    <t>수(1-2)금(6-7)</t>
-  </si>
-  <si>
-    <t>수(4-5)금(1-2)</t>
-  </si>
-  <si>
-    <t>월(1-2)수(6-7)</t>
-  </si>
-  <si>
-    <t>월(1-2)수(8-9)</t>
-  </si>
-  <si>
-    <t>화(4-5)목(5-6)</t>
-  </si>
-  <si>
-    <t>화(4-5)수(4-5)</t>
-  </si>
-  <si>
-    <t>화(6-7)수(4-5)</t>
-  </si>
-  <si>
-    <t>월(6-7)수(2-3)</t>
-  </si>
-  <si>
-    <t>화(1-2)목(5-6)</t>
-  </si>
-  <si>
-    <t>월(5-6)목(3-4)</t>
-  </si>
-  <si>
-    <t>월(7-8)수(8-9)</t>
-  </si>
-  <si>
-    <t>수(4-5)목(3-4)</t>
-  </si>
-  <si>
-    <t>월(3-4)목(4-5)</t>
-  </si>
-  <si>
-    <t>화(5-6)수(1-2)</t>
-  </si>
-  <si>
-    <t>월(4-5)화(4-5)</t>
-  </si>
-  <si>
-    <t>화(3-4)목(5-6)</t>
-  </si>
-  <si>
-    <t>화(4-5)수(1-2)</t>
-  </si>
-  <si>
-    <t>화(1-2)목(1-2)</t>
-  </si>
-  <si>
-    <t>수(6-7)금(1-2)</t>
-  </si>
-  <si>
-    <t>월(1-2)수(7-8)</t>
-  </si>
-  <si>
-    <t>화(2-3)목(2-3)</t>
-  </si>
-  <si>
-    <t>화(6-7)금(6-7)</t>
-  </si>
-  <si>
-    <t>월(4-5)수(2-3)</t>
-  </si>
-  <si>
-    <t>월(2-3)수(3)</t>
-  </si>
-  <si>
-    <t>월(5-6)수(6)</t>
-  </si>
-  <si>
-    <t>수(7)금(2-3)</t>
-  </si>
-  <si>
-    <t>월(7-8)수(8)</t>
-  </si>
-  <si>
-    <t>수(3)금(2-3)</t>
-  </si>
-  <si>
-    <t>월(2-3)수(5)</t>
-  </si>
-  <si>
-    <t>수(1-2)금(5)</t>
-  </si>
-  <si>
-    <t>수(5-6)금(5)</t>
-  </si>
-  <si>
-    <t>수(3)금(6-7)</t>
-  </si>
-  <si>
-    <t>수(7)금(6-7)</t>
-  </si>
-  <si>
-    <t>월(1-2)수(3)</t>
-  </si>
-  <si>
-    <t>수(6)금(2-3)</t>
-  </si>
-  <si>
-    <t>수(4-5)금(4)</t>
-  </si>
-  <si>
-    <t>월(7-8)수(7)</t>
-  </si>
-  <si>
-    <t>수(7-8)금(3)</t>
-  </si>
-  <si>
-    <t>수(4)금(4-5)</t>
-  </si>
-  <si>
-    <t>수(3)금(1-2)</t>
-  </si>
-  <si>
-    <t>월(5-6)화(6)</t>
-  </si>
-  <si>
-    <t>화(1-2)수(3)</t>
+    <t>월(7-8),목(4-5)</t>
+  </si>
+  <si>
+    <t>월(1-2),수(4-5)</t>
+  </si>
+  <si>
+    <t>화(3-4),목(1-2)</t>
+  </si>
+  <si>
+    <t>화(4-5),목(1-2)</t>
+  </si>
+  <si>
+    <t>화(1-2),목(7-8)</t>
+  </si>
+  <si>
+    <t>수(7-8),금(6-7)</t>
+  </si>
+  <si>
+    <t>화(7-8),금(1-2)</t>
+  </si>
+  <si>
+    <t>월(6-7),화(6-7)</t>
+  </si>
+  <si>
+    <t>월(4-5),수(1-2)</t>
+  </si>
+  <si>
+    <t>월(3-4),수(1-2)</t>
+  </si>
+  <si>
+    <t>수(7-8),금(2-3)</t>
+  </si>
+  <si>
+    <t>월(3-4),목(7-8)</t>
+  </si>
+  <si>
+    <t>화(3-4),목(3-4)</t>
+  </si>
+  <si>
+    <t>월(5-6),목(5-6)</t>
+  </si>
+  <si>
+    <t>수(7-8),금(1-2)</t>
+  </si>
+  <si>
+    <t>수(2-3),금(4-5)</t>
+  </si>
+  <si>
+    <t>수(1-2),금(4-5)</t>
+  </si>
+  <si>
+    <t>수(6-7),금(4-5)</t>
+  </si>
+  <si>
+    <t>화(1-2),금(6-7)</t>
+  </si>
+  <si>
+    <t>화(1-2),금(4-5)</t>
+  </si>
+  <si>
+    <t>월(4-5),화(7-8)</t>
+  </si>
+  <si>
+    <t>월(7-8),목(7-8)</t>
+  </si>
+  <si>
+    <t>수(1-2),금(6-7)</t>
+  </si>
+  <si>
+    <t>수(4-5),금(1-2)</t>
+  </si>
+  <si>
+    <t>월(1-2),수(6-7)</t>
+  </si>
+  <si>
+    <t>월(1-2),수(8-9)</t>
+  </si>
+  <si>
+    <t>화(4-5),목(5-6)</t>
+  </si>
+  <si>
+    <t>화(4-5),수(4-5)</t>
+  </si>
+  <si>
+    <t>화(6-7),수(4-5)</t>
+  </si>
+  <si>
+    <t>월(6-7),수(2-3)</t>
+  </si>
+  <si>
+    <t>화(1-2),목(5-6)</t>
+  </si>
+  <si>
+    <t>월(5-6),목(3-4)</t>
+  </si>
+  <si>
+    <t>월(7-8),수(8-9)</t>
+  </si>
+  <si>
+    <t>수(4-5),목(3-4)</t>
+  </si>
+  <si>
+    <t>월(3-4),목(4-5)</t>
+  </si>
+  <si>
+    <t>화(5-6),수(1-2)</t>
+  </si>
+  <si>
+    <t>월(4-5),화(4-5)</t>
+  </si>
+  <si>
+    <t>화(3-4),목(5-6)</t>
+  </si>
+  <si>
+    <t>화(4-5),수(1-2)</t>
+  </si>
+  <si>
+    <t>화(1-2),목(1-2)</t>
+  </si>
+  <si>
+    <t>수(6-7),금(1-2)</t>
+  </si>
+  <si>
+    <t>월(1-2),수(7-8)</t>
+  </si>
+  <si>
+    <t>화(2-3),목(2-3)</t>
+  </si>
+  <si>
+    <t>화(6-7),금(6-7)</t>
+  </si>
+  <si>
+    <t>월(4-5),수(2-3)</t>
+  </si>
+  <si>
+    <t>월(2-3),수(3)</t>
+  </si>
+  <si>
+    <t>월(5-6),수(6)</t>
+  </si>
+  <si>
+    <t>수(7),금(2-3)</t>
+  </si>
+  <si>
+    <t>월(7-8),수(8)</t>
+  </si>
+  <si>
+    <t>수(3),금(2-3)</t>
+  </si>
+  <si>
+    <t>월(2-3),수(5)</t>
+  </si>
+  <si>
+    <t>수(1-2),금(5)</t>
+  </si>
+  <si>
+    <t>수(5-6),금(5)</t>
+  </si>
+  <si>
+    <t>수(3),금(6-7)</t>
+  </si>
+  <si>
+    <t>수(7),금(6-7)</t>
+  </si>
+  <si>
+    <t>월(1-2),수(3)</t>
+  </si>
+  <si>
+    <t>수(6),금(2-3)</t>
+  </si>
+  <si>
+    <t>수(4-5),금(4)</t>
+  </si>
+  <si>
+    <t>월(7-8),수(7)</t>
+  </si>
+  <si>
+    <t>수(7-8),금(3)</t>
+  </si>
+  <si>
+    <t>수(4),금(4-5)</t>
+  </si>
+  <si>
+    <t>수(3),금(1-2)</t>
+  </si>
+  <si>
+    <t>월(5-6),화(6)</t>
+  </si>
+  <si>
+    <t>화(1-2),수(3)</t>
   </si>
   <si>
     <t>월(3-4)</t>
   </si>
   <si>
-    <t>월(3)수(1-2)</t>
-  </si>
-  <si>
-    <t>수(6)목(2-3)</t>
-  </si>
-  <si>
-    <t>월(1-2)화(3)</t>
-  </si>
-  <si>
-    <t>월(6-7)수(6)</t>
-  </si>
-  <si>
-    <t>월(8)수(7-8)</t>
-  </si>
-  <si>
-    <t>월(5-6)화(2)</t>
-  </si>
-  <si>
-    <t>월(3-4)화(5)</t>
-  </si>
-  <si>
-    <t>화(3)목(2-3)</t>
-  </si>
-  <si>
-    <t>월(2-3)화(7)</t>
-  </si>
-  <si>
-    <t>화(5)목(2-3)</t>
+    <t>월(3),수(1-2)</t>
+  </si>
+  <si>
+    <t>수(6),목(2-3)</t>
+  </si>
+  <si>
+    <t>월(1-2),화(3)</t>
+  </si>
+  <si>
+    <t>월(6-7),수(6)</t>
+  </si>
+  <si>
+    <t>월(8),수(7-8)</t>
+  </si>
+  <si>
+    <t>월(5-6),화(2)</t>
+  </si>
+  <si>
+    <t>월(3-4),화(5)</t>
+  </si>
+  <si>
+    <t>화(3),목(2-3)</t>
+  </si>
+  <si>
+    <t>월(2-3),화(7)</t>
+  </si>
+  <si>
+    <t>화(5),목(2-3)</t>
   </si>
   <si>
     <t>금(6-7)</t>
   </si>
   <si>
-    <t>월(3)화(1-2)</t>
+    <t>월(3),화(1-2)</t>
   </si>
   <si>
     <t>목(7-9)</t>
   </si>
   <si>
-    <t>화(2-3)목(2)</t>
-  </si>
-  <si>
-    <t>화(5)목(5-6)</t>
-  </si>
-  <si>
-    <t>화(6-7)목(5)</t>
-  </si>
-  <si>
-    <t>월(4-5)화(5)</t>
-  </si>
-  <si>
-    <t>수(8)금(4-5)</t>
-  </si>
-  <si>
-    <t>화(4)수(5-6)</t>
-  </si>
-  <si>
-    <t>수(8)목(8-9)</t>
-  </si>
-  <si>
-    <t>화(6)수(2-3)</t>
-  </si>
-  <si>
-    <t>화(7-8)수(3)</t>
+    <t>화(2-3),목(2)</t>
+  </si>
+  <si>
+    <t>화(5),목(5-6)</t>
+  </si>
+  <si>
+    <t>화(6-7),목(5)</t>
+  </si>
+  <si>
+    <t>월(4-5),화(5)</t>
+  </si>
+  <si>
+    <t>수(8),금(4-5)</t>
+  </si>
+  <si>
+    <t>화(4),수(5-6)</t>
+  </si>
+  <si>
+    <t>수(8),목(8-9)</t>
+  </si>
+  <si>
+    <t>화(6),수(2-3)</t>
+  </si>
+  <si>
+    <t>화(7-8),수(3)</t>
   </si>
   <si>
     <t>월(7-9)</t>
   </si>
   <si>
-    <t>화(4-5)수(2)</t>
-  </si>
-  <si>
-    <t>월(7-8)수(1)</t>
-  </si>
-  <si>
-    <t>월(1-2)수(1)</t>
-  </si>
-  <si>
-    <t>화(3)수(2-3)</t>
+    <t>화(4-5),수(2)</t>
+  </si>
+  <si>
+    <t>월(7-8),수(1)</t>
+  </si>
+  <si>
+    <t>월(1-2),수(1)</t>
+  </si>
+  <si>
+    <t>화(3),수(2-3)</t>
   </si>
   <si>
     <t>월(2-4)</t>
   </si>
   <si>
-    <t>화(5-6)수(4)</t>
-  </si>
-  <si>
-    <t>수(7)목(4-5)</t>
-  </si>
-  <si>
-    <t>월(5-6)수(3)</t>
-  </si>
-  <si>
-    <t>월(6)목(6-7)</t>
-  </si>
-  <si>
-    <t>화(6-7)수(7)</t>
-  </si>
-  <si>
-    <t>월(9)수(2-3)</t>
-  </si>
-  <si>
-    <t>수(2-3)목(5)</t>
+    <t>화(5-6),수(4)</t>
+  </si>
+  <si>
+    <t>수(7),목(4-5)</t>
+  </si>
+  <si>
+    <t>월(5-6),수(3)</t>
+  </si>
+  <si>
+    <t>월(6),목(6-7)</t>
+  </si>
+  <si>
+    <t>화(6-7),수(7)</t>
+  </si>
+  <si>
+    <t>월(9),수(2-3)</t>
+  </si>
+  <si>
+    <t>수(2-3),목(5)</t>
   </si>
   <si>
     <t>목(2-4)</t>
@@ -9022,49 +9022,49 @@
     <t>화(7-9)</t>
   </si>
   <si>
-    <t>화(2-3)화(5)</t>
+    <t>화(2-3),화(5)</t>
   </si>
   <si>
     <t>목(5-7)</t>
   </si>
   <si>
-    <t>월(2-3)월(5)</t>
-  </si>
-  <si>
-    <t>화(4)수(8-9)</t>
-  </si>
-  <si>
-    <t>금(2-3)금(5)</t>
-  </si>
-  <si>
-    <t>화(7-8)수(6)</t>
-  </si>
-  <si>
-    <t>월(7-8)수(6)</t>
+    <t>월(2-3),월(5)</t>
+  </si>
+  <si>
+    <t>화(4),수(8-9)</t>
+  </si>
+  <si>
+    <t>금(2-3),금(5)</t>
+  </si>
+  <si>
+    <t>화(7-8),수(6)</t>
+  </si>
+  <si>
+    <t>월(7-8),수(6)</t>
   </si>
   <si>
     <t>수(3-5)</t>
   </si>
   <si>
-    <t>월(2-3)수(4)</t>
-  </si>
-  <si>
-    <t>수(6)목(6-7)</t>
-  </si>
-  <si>
-    <t>월(3-4)수(2)</t>
+    <t>월(2-3),수(4)</t>
+  </si>
+  <si>
+    <t>수(6),목(6-7)</t>
+  </si>
+  <si>
+    <t>월(3-4),수(2)</t>
   </si>
   <si>
     <t>화(2-4)</t>
   </si>
   <si>
-    <t>수(7-8)목(8)</t>
-  </si>
-  <si>
-    <t>월(4)수(2-3)</t>
-  </si>
-  <si>
-    <t>월(6)화(6-7)</t>
+    <t>수(7-8),목(8)</t>
+  </si>
+  <si>
+    <t>월(4),수(2-3)</t>
+  </si>
+  <si>
+    <t>월(6),화(6-7)</t>
   </si>
   <si>
     <t>금(6-8)</t>
@@ -9079,109 +9079,109 @@
     <t>목(6-8)</t>
   </si>
   <si>
-    <t>월(8-9)수(6)</t>
-  </si>
-  <si>
-    <t>월(2-3)수(1)</t>
-  </si>
-  <si>
-    <t>월(1)수(2-3)</t>
-  </si>
-  <si>
-    <t>목(6)금(6-7)</t>
+    <t>월(8-9),수(6)</t>
+  </si>
+  <si>
+    <t>월(2-3),수(1)</t>
+  </si>
+  <si>
+    <t>월(1),수(2-3)</t>
+  </si>
+  <si>
+    <t>목(6),금(6-7)</t>
   </si>
   <si>
     <t>월(6-8)</t>
   </si>
   <si>
-    <t>목(5)금(5-6)</t>
-  </si>
-  <si>
-    <t>화(4)수(6-7)</t>
-  </si>
-  <si>
-    <t>월(5-6)화(5)</t>
-  </si>
-  <si>
-    <t>목(6)금(2-3)</t>
-  </si>
-  <si>
-    <t>화(6)수(4-5)</t>
-  </si>
-  <si>
-    <t>목(3)금(7-8)</t>
-  </si>
-  <si>
-    <t>화(2-3)목(4)</t>
-  </si>
-  <si>
-    <t>목(7-8)금(4)</t>
-  </si>
-  <si>
-    <t>수(5-6)목(2)</t>
-  </si>
-  <si>
-    <t>화(7-8)화(10)</t>
-  </si>
-  <si>
-    <t>금(4)금(7-8)</t>
-  </si>
-  <si>
-    <t>수(8-9)목(5)</t>
-  </si>
-  <si>
-    <t>월(2)수(2-3)</t>
-  </si>
-  <si>
-    <t>월(4-5)화(1-3)</t>
-  </si>
-  <si>
-    <t>수(8)금(3-4)</t>
-  </si>
-  <si>
-    <t>수(1)목(3-4)</t>
-  </si>
-  <si>
-    <t>목(8-9)금(5-7)</t>
-  </si>
-  <si>
-    <t>월(6-7)수(4)</t>
-  </si>
-  <si>
-    <t>월(8-9)금(3)</t>
-  </si>
-  <si>
-    <t>수(8)목(6-7)</t>
-  </si>
-  <si>
-    <t>화(4)목(3-4)</t>
-  </si>
-  <si>
-    <t>목(6-7)금(2)</t>
-  </si>
-  <si>
-    <t>화(2-3)수(6)</t>
-  </si>
-  <si>
-    <t>목(1-2)금(1)</t>
-  </si>
-  <si>
-    <t>화(8-9)수(7)</t>
-  </si>
-  <si>
-    <t>화(5-6)수(5)</t>
-  </si>
-  <si>
-    <t>월(5)수(5-6)</t>
-  </si>
-  <si>
-    <t>월(6-7)화(7)</t>
-  </si>
-  <si>
-    <t>화(2)목(4-5)</t>
-  </si>
-  <si>
-    <t>월(3)화(7-8)</t>
+    <t>목(5),금(5-6)</t>
+  </si>
+  <si>
+    <t>화(4),수(6-7)</t>
+  </si>
+  <si>
+    <t>월(5-6),화(5)</t>
+  </si>
+  <si>
+    <t>목(6),금(2-3)</t>
+  </si>
+  <si>
+    <t>화(6),수(4-5)</t>
+  </si>
+  <si>
+    <t>목(3),금(7-8)</t>
+  </si>
+  <si>
+    <t>화(2-3),목(4)</t>
+  </si>
+  <si>
+    <t>목(7-8),금(4)</t>
+  </si>
+  <si>
+    <t>수(5-6),목(2)</t>
+  </si>
+  <si>
+    <t>화(7-8),화(10)</t>
+  </si>
+  <si>
+    <t>금(4),금(7-8)</t>
+  </si>
+  <si>
+    <t>수(8-9),목(5)</t>
+  </si>
+  <si>
+    <t>월(2),수(2-3)</t>
+  </si>
+  <si>
+    <t>월(4-5),화(1-3)</t>
+  </si>
+  <si>
+    <t>수(8),금(3-4)</t>
+  </si>
+  <si>
+    <t>수(1),목(3-4)</t>
+  </si>
+  <si>
+    <t>목(8-9),금(5-7)</t>
+  </si>
+  <si>
+    <t>월(6-7),수(4)</t>
+  </si>
+  <si>
+    <t>월(8-9),금(3)</t>
+  </si>
+  <si>
+    <t>수(8),목(6-7)</t>
+  </si>
+  <si>
+    <t>화(4),목(3-4)</t>
+  </si>
+  <si>
+    <t>목(6-7),금(2)</t>
+  </si>
+  <si>
+    <t>화(2-3),수(6)</t>
+  </si>
+  <si>
+    <t>목(1-2),금(1)</t>
+  </si>
+  <si>
+    <t>화(8-9),수(7)</t>
+  </si>
+  <si>
+    <t>화(5-6),수(5)</t>
+  </si>
+  <si>
+    <t>월(5),수(5-6)</t>
+  </si>
+  <si>
+    <t>월(6-7),화(7)</t>
+  </si>
+  <si>
+    <t>화(2),목(4-5)</t>
+  </si>
+  <si>
+    <t>월(3),화(7-8)</t>
   </si>
   <si>
     <t>수(7-10)</t>
@@ -9196,88 +9196,88 @@
     <t>토(4)</t>
   </si>
   <si>
-    <t>화(8-9)수(9)</t>
-  </si>
-  <si>
-    <t>월(6-7)화(6)</t>
-  </si>
-  <si>
-    <t>월(2-3)목(2)</t>
-  </si>
-  <si>
-    <t>월(8-9)목(9)</t>
-  </si>
-  <si>
-    <t>월(4-5)수(3)</t>
-  </si>
-  <si>
-    <t>화(2)목(3-4)</t>
-  </si>
-  <si>
-    <t>화(7)목(5-6)</t>
-  </si>
-  <si>
-    <t>화(3)수(5-6)</t>
-  </si>
-  <si>
-    <t>화(7)목(7-8)</t>
-  </si>
-  <si>
-    <t>월(6-7)목(1)</t>
-  </si>
-  <si>
-    <t>목(10)금(9-12)</t>
-  </si>
-  <si>
-    <t>월(1)수(7-8)</t>
-  </si>
-  <si>
-    <t>화(10-12)수(10-11)</t>
-  </si>
-  <si>
-    <t>화(3-4)수(9)</t>
-  </si>
-  <si>
-    <t>수(4-5)목(1)</t>
+    <t>화(8-9),수(9)</t>
+  </si>
+  <si>
+    <t>월(6-7),화(6)</t>
+  </si>
+  <si>
+    <t>월(2-3),목(2)</t>
+  </si>
+  <si>
+    <t>월(8-9),목(9)</t>
+  </si>
+  <si>
+    <t>월(4-5),수(3)</t>
+  </si>
+  <si>
+    <t>화(2),목(3-4)</t>
+  </si>
+  <si>
+    <t>화(7),목(5-6)</t>
+  </si>
+  <si>
+    <t>화(3),수(5-6)</t>
+  </si>
+  <si>
+    <t>화(7),목(7-8)</t>
+  </si>
+  <si>
+    <t>월(6-7),목(1)</t>
+  </si>
+  <si>
+    <t>목(10),금(9-12)</t>
+  </si>
+  <si>
+    <t>월(1),수(7-8)</t>
+  </si>
+  <si>
+    <t>화(10-12),수(10-11)</t>
+  </si>
+  <si>
+    <t>화(3-4),수(9)</t>
+  </si>
+  <si>
+    <t>수(4-5),목(1)</t>
   </si>
   <si>
     <t>월(5-7)</t>
   </si>
   <si>
-    <t>화(1-2)수(1)</t>
-  </si>
-  <si>
-    <t>화(5)금(4-5)</t>
-  </si>
-  <si>
-    <t>목(7)금(2-3)</t>
-  </si>
-  <si>
-    <t>수(2-3)목(6)</t>
+    <t>화(1-2),수(1)</t>
+  </si>
+  <si>
+    <t>화(5),금(4-5)</t>
+  </si>
+  <si>
+    <t>목(7),금(2-3)</t>
+  </si>
+  <si>
+    <t>수(2-3),목(6)</t>
   </si>
   <si>
     <t>화(6-8)</t>
   </si>
   <si>
-    <t>월(8-9)수(8)</t>
-  </si>
-  <si>
-    <t>화(1-2)목(10)</t>
-  </si>
-  <si>
-    <t>화(9-10)목(8)</t>
-  </si>
-  <si>
-    <t>화(3-4)목(9)</t>
-  </si>
-  <si>
-    <t>금(7-9)금(7-9)금(7-9)금(7-9)</t>
-  </si>
-  <si>
-    <t>화(3)수(1-2)</t>
-  </si>
-  <si>
-    <t>화(5-6)목(2)</t>
+    <t>월(8-9),수(8)</t>
+  </si>
+  <si>
+    <t>화(1-2),목(10)</t>
+  </si>
+  <si>
+    <t>화(9-10),목(8)</t>
+  </si>
+  <si>
+    <t>화(3-4),목(9)</t>
+  </si>
+  <si>
+    <t>금(7-9),금(7-9),금(7-9),금(7-9)</t>
+  </si>
+  <si>
+    <t>화(3),수(1-2)</t>
+  </si>
+  <si>
+    <t>화(5-6),목(2)</t>
   </si>
   <si>
     <t>수(3)</t>
@@ -9286,55 +9286,55 @@
     <t>월(3)</t>
   </si>
   <si>
-    <t>월(6-7)목(6)</t>
+    <t>월(6-7),목(6)</t>
   </si>
   <si>
     <t>목(4)</t>
   </si>
   <si>
-    <t>월(8-9)화(8)</t>
-  </si>
-  <si>
-    <t>월(1-2)화(1)</t>
-  </si>
-  <si>
-    <t>화(9)수(8-9)</t>
-  </si>
-  <si>
-    <t>월(6)수(5-6)목(3)</t>
-  </si>
-  <si>
-    <t>월(7-8)목(6)</t>
-  </si>
-  <si>
-    <t>월(4-5)수(4)목(9)</t>
-  </si>
-  <si>
-    <t>화(1-2)화(5)수(9)</t>
-  </si>
-  <si>
-    <t>월(7-8)화(7-8)</t>
-  </si>
-  <si>
-    <t>수(4-5)금(5-6)</t>
-  </si>
-  <si>
-    <t>월(7-8)수(8)목(8)</t>
-  </si>
-  <si>
-    <t>월(2-3)화(6-7)</t>
-  </si>
-  <si>
-    <t>수(1-2)금(3-4)</t>
-  </si>
-  <si>
-    <t>월(9)수(7)목(6-7)</t>
-  </si>
-  <si>
-    <t>수(3)목(4-5)</t>
-  </si>
-  <si>
-    <t>수(2)목(1-2)</t>
+    <t>월(8-9),화(8)</t>
+  </si>
+  <si>
+    <t>월(1-2),화(1)</t>
+  </si>
+  <si>
+    <t>화(9),수(8-9)</t>
+  </si>
+  <si>
+    <t>월(6),수(5-6),목(3)</t>
+  </si>
+  <si>
+    <t>월(7-8),목(6)</t>
+  </si>
+  <si>
+    <t>월(4-5),수(4),목(9)</t>
+  </si>
+  <si>
+    <t>화(1-2),화(5),수(9)</t>
+  </si>
+  <si>
+    <t>월(7-8),화(7-8)</t>
+  </si>
+  <si>
+    <t>수(4-5),금(5-6)</t>
+  </si>
+  <si>
+    <t>월(7-8),수(8),목(8)</t>
+  </si>
+  <si>
+    <t>월(2-3),화(6-7)</t>
+  </si>
+  <si>
+    <t>수(1-2),금(3-4)</t>
+  </si>
+  <si>
+    <t>월(9),수(7),목(6-7)</t>
+  </si>
+  <si>
+    <t>수(3),목(4-5)</t>
+  </si>
+  <si>
+    <t>수(2),목(1-2)</t>
   </si>
   <si>
     <t>수(6-8)</t>
@@ -9343,10 +9343,10 @@
     <t>화(1-4)</t>
   </si>
   <si>
-    <t>월(8)화(2-3)</t>
-  </si>
-  <si>
-    <t>수(2)목(2-3)</t>
+    <t>월(8),화(2-3)</t>
+  </si>
+  <si>
+    <t>수(2),목(2-3)</t>
   </si>
   <si>
     <t>월(2-5)</t>
@@ -9358,226 +9358,226 @@
     <t>월(6-9)</t>
   </si>
   <si>
-    <t>목(7-9)목(10)</t>
-  </si>
-  <si>
-    <t>월(12-13)수(11-12)</t>
-  </si>
-  <si>
-    <t>월(4-5)월(7)</t>
-  </si>
-  <si>
-    <t>화(2-3)목(1)</t>
-  </si>
-  <si>
-    <t>수(2-3)수(5)</t>
-  </si>
-  <si>
-    <t>화(2-3)금(4)</t>
-  </si>
-  <si>
-    <t>화(4-5)화(8)</t>
-  </si>
-  <si>
-    <t>목(3)금(2-3)</t>
-  </si>
-  <si>
-    <t>월(9-10)목(9)</t>
-  </si>
-  <si>
-    <t>월(9-10)목(8)</t>
-  </si>
-  <si>
-    <t>월(5)목(4-5)</t>
-  </si>
-  <si>
-    <t>화(9-10)목(10)</t>
-  </si>
-  <si>
-    <t>월(6)수(6-7)</t>
-  </si>
-  <si>
-    <t>월(4)화(6-7)</t>
-  </si>
-  <si>
-    <t>월(12-13)목(12-13)</t>
-  </si>
-  <si>
-    <t>화(2-3)목(3)</t>
-  </si>
-  <si>
-    <t>수(1-2)목(6)</t>
-  </si>
-  <si>
-    <t>월(5-6)목(6)</t>
-  </si>
-  <si>
-    <t>화(5)목(4-5)</t>
-  </si>
-  <si>
-    <t>목(8)금(2-3)</t>
-  </si>
-  <si>
-    <t>화(7-8)목(7)</t>
-  </si>
-  <si>
-    <t>화(6-7)화(8)</t>
-  </si>
-  <si>
-    <t>월(1-2)목(1-2)</t>
-  </si>
-  <si>
-    <t>월(2-3)화(2)</t>
-  </si>
-  <si>
-    <t>수(1-2)목(2)</t>
-  </si>
-  <si>
-    <t>화(1-2)목(3)</t>
-  </si>
-  <si>
-    <t>화(5-6)목(3)</t>
-  </si>
-  <si>
-    <t>화(4-5)목(3)</t>
-  </si>
-  <si>
-    <t>월(2-3)수(7)</t>
-  </si>
-  <si>
-    <t>월(6)수(7-8)</t>
-  </si>
-  <si>
-    <t>수(7-8)목(5)</t>
-  </si>
-  <si>
-    <t>수(7-8)목(7)</t>
-  </si>
-  <si>
-    <t>수(10)목(9-10)</t>
-  </si>
-  <si>
-    <t>월(7-8)화(3)</t>
-  </si>
-  <si>
-    <t>화(7-8)목(5)</t>
-  </si>
-  <si>
-    <t>월(7-8)수(2)</t>
-  </si>
-  <si>
-    <t>화(7)수(2-3)</t>
-  </si>
-  <si>
-    <t>수(7-8)목(3)</t>
-  </si>
-  <si>
-    <t>수(4-5)목(5)</t>
-  </si>
-  <si>
-    <t>목(8)금(5-6)</t>
-  </si>
-  <si>
-    <t>화(3)목(4-5)</t>
-  </si>
-  <si>
-    <t>월(5)수(2-3)</t>
-  </si>
-  <si>
-    <t>목(5)금(2-3)</t>
-  </si>
-  <si>
-    <t>수(2-3)금(5)</t>
-  </si>
-  <si>
-    <t>월(2-3)수(2)</t>
-  </si>
-  <si>
-    <t>목(4)금(2-3)</t>
-  </si>
-  <si>
-    <t>화(5-6)목(7)</t>
-  </si>
-  <si>
-    <t>월(8-9)목(2-3)</t>
-  </si>
-  <si>
-    <t>월(6-7)목(2-3)</t>
-  </si>
-  <si>
-    <t>월(8-9)수(5-6)</t>
-  </si>
-  <si>
-    <t>화(3-4)목(8-9)</t>
-  </si>
-  <si>
-    <t>화(8-9)목(8-9)</t>
-  </si>
-  <si>
-    <t>화(5-6)수(7-8)</t>
-  </si>
-  <si>
-    <t>월(4-5)수(8-9)</t>
-  </si>
-  <si>
-    <t>화(7)목(8-9)</t>
-  </si>
-  <si>
-    <t>수(2-3)목(2)</t>
-  </si>
-  <si>
-    <t>화(8-9)목(5)</t>
-  </si>
-  <si>
-    <t>화(2-3)목(6)</t>
-  </si>
-  <si>
-    <t>월(5)화(2-3)</t>
-  </si>
-  <si>
-    <t>화(7)수(8-9)</t>
-  </si>
-  <si>
-    <t>월(6-7)목(5)</t>
-  </si>
-  <si>
-    <t>수(10-11)목(6-7)</t>
-  </si>
-  <si>
-    <t>화(8-9)목(10-11)</t>
-  </si>
-  <si>
-    <t>월(2-3)목(8)</t>
-  </si>
-  <si>
-    <t>월(8)수(8-9)목(5)</t>
-  </si>
-  <si>
-    <t>수(10)금(1-3)</t>
-  </si>
-  <si>
-    <t>월(3-4)수(6-7)</t>
-  </si>
-  <si>
-    <t>화(7-9)화(10-12)</t>
-  </si>
-  <si>
-    <t>목(6-7)목(8-11)</t>
-  </si>
-  <si>
-    <t>월(1-2)수(1-2)</t>
-  </si>
-  <si>
-    <t>화(1-2)목(1)금(1)</t>
+    <t>목(7-9),목(10)</t>
+  </si>
+  <si>
+    <t>월(12-13),수(11-12)</t>
+  </si>
+  <si>
+    <t>월(4-5),월(7)</t>
+  </si>
+  <si>
+    <t>화(2-3),목(1)</t>
+  </si>
+  <si>
+    <t>수(2-3),수(5)</t>
+  </si>
+  <si>
+    <t>화(2-3),금(4)</t>
+  </si>
+  <si>
+    <t>화(4-5),화(8)</t>
+  </si>
+  <si>
+    <t>목(3),금(2-3)</t>
+  </si>
+  <si>
+    <t>월(9-10),목(9)</t>
+  </si>
+  <si>
+    <t>월(9-10),목(8)</t>
+  </si>
+  <si>
+    <t>월(5),목(4-5)</t>
+  </si>
+  <si>
+    <t>화(9-10),목(10)</t>
+  </si>
+  <si>
+    <t>월(6),수(6-7)</t>
+  </si>
+  <si>
+    <t>월(4),화(6-7)</t>
+  </si>
+  <si>
+    <t>월(12-13),목(12-13)</t>
+  </si>
+  <si>
+    <t>화(2-3),목(3)</t>
+  </si>
+  <si>
+    <t>수(1-2),목(6)</t>
+  </si>
+  <si>
+    <t>월(5-6),목(6)</t>
+  </si>
+  <si>
+    <t>화(5),목(4-5)</t>
+  </si>
+  <si>
+    <t>목(8),금(2-3)</t>
+  </si>
+  <si>
+    <t>화(7-8),목(7)</t>
+  </si>
+  <si>
+    <t>화(6-7),화(8)</t>
+  </si>
+  <si>
+    <t>월(1-2),목(1-2)</t>
+  </si>
+  <si>
+    <t>월(2-3),화(2)</t>
+  </si>
+  <si>
+    <t>수(1-2),목(2)</t>
+  </si>
+  <si>
+    <t>화(1-2),목(3)</t>
+  </si>
+  <si>
+    <t>화(5-6),목(3)</t>
+  </si>
+  <si>
+    <t>화(4-5),목(3)</t>
+  </si>
+  <si>
+    <t>월(2-3),수(7)</t>
+  </si>
+  <si>
+    <t>월(6),수(7-8)</t>
+  </si>
+  <si>
+    <t>수(7-8),목(5)</t>
+  </si>
+  <si>
+    <t>수(7-8),목(7)</t>
+  </si>
+  <si>
+    <t>수(10),목(9-10)</t>
+  </si>
+  <si>
+    <t>월(7-8),화(3)</t>
+  </si>
+  <si>
+    <t>화(7-8),목(5)</t>
+  </si>
+  <si>
+    <t>월(7-8),수(2)</t>
+  </si>
+  <si>
+    <t>화(7),수(2-3)</t>
+  </si>
+  <si>
+    <t>수(7-8),목(3)</t>
+  </si>
+  <si>
+    <t>수(4-5),목(5)</t>
+  </si>
+  <si>
+    <t>목(8),금(5-6)</t>
+  </si>
+  <si>
+    <t>화(3),목(4-5)</t>
+  </si>
+  <si>
+    <t>월(5),수(2-3)</t>
+  </si>
+  <si>
+    <t>목(5),금(2-3)</t>
+  </si>
+  <si>
+    <t>수(2-3),금(5)</t>
+  </si>
+  <si>
+    <t>월(2-3),수(2)</t>
+  </si>
+  <si>
+    <t>목(4),금(2-3)</t>
+  </si>
+  <si>
+    <t>화(5-6),목(7)</t>
+  </si>
+  <si>
+    <t>월(8-9),목(2-3)</t>
+  </si>
+  <si>
+    <t>월(6-7),목(2-3)</t>
+  </si>
+  <si>
+    <t>월(8-9),수(5-6)</t>
+  </si>
+  <si>
+    <t>화(3-4),목(8-9)</t>
+  </si>
+  <si>
+    <t>화(8-9),목(8-9)</t>
+  </si>
+  <si>
+    <t>화(5-6),수(7-8)</t>
+  </si>
+  <si>
+    <t>월(4-5),수(8-9)</t>
+  </si>
+  <si>
+    <t>화(7),목(8-9)</t>
+  </si>
+  <si>
+    <t>수(2-3),목(2)</t>
+  </si>
+  <si>
+    <t>화(8-9),목(5)</t>
+  </si>
+  <si>
+    <t>화(2-3),목(6)</t>
+  </si>
+  <si>
+    <t>월(5),화(2-3)</t>
+  </si>
+  <si>
+    <t>화(7),수(8-9)</t>
+  </si>
+  <si>
+    <t>월(6-7),목(5)</t>
+  </si>
+  <si>
+    <t>수(10-11),목(6-7)</t>
+  </si>
+  <si>
+    <t>화(8-9),목(10-11)</t>
+  </si>
+  <si>
+    <t>월(2-3),목(8)</t>
+  </si>
+  <si>
+    <t>월(8),수(8-9),목(5)</t>
+  </si>
+  <si>
+    <t>수(10),금(1-3)</t>
+  </si>
+  <si>
+    <t>월(3-4),수(6-7)</t>
+  </si>
+  <si>
+    <t>화(7-9),화(10-12)</t>
+  </si>
+  <si>
+    <t>목(6-7),목(8-11)</t>
+  </si>
+  <si>
+    <t>월(1-2),수(1-2)</t>
+  </si>
+  <si>
+    <t>화(1-2),목(1),금(1)</t>
   </si>
   <si>
     <t>금(4-6)</t>
   </si>
   <si>
-    <t>화(5-6)수(3)</t>
-  </si>
-  <si>
-    <t>월(5-6)수(5)</t>
+    <t>화(5-6),수(3)</t>
+  </si>
+  <si>
+    <t>월(5-6),수(5)</t>
   </si>
   <si>
     <t>금(7-10)</t>
@@ -9589,235 +9589,235 @@
     <t>금(2-5)</t>
   </si>
   <si>
-    <t>수(7-8)목(6-7)</t>
-  </si>
-  <si>
-    <t>월(7)화(8-10)</t>
-  </si>
-  <si>
-    <t>화(4-5)금(3)</t>
-  </si>
-  <si>
-    <t>목(2-3)금(4)</t>
-  </si>
-  <si>
-    <t>월(8-9)수(9)</t>
-  </si>
-  <si>
-    <t>화(7)금(6-7)</t>
-  </si>
-  <si>
-    <t>화(2-3)수(3)</t>
-  </si>
-  <si>
-    <t>목(6)금(1-2)</t>
-  </si>
-  <si>
-    <t>목(4-5)금(5)</t>
-  </si>
-  <si>
-    <t>월(4)목(7-8)</t>
+    <t>수(7-8),목(6-7)</t>
+  </si>
+  <si>
+    <t>월(7),화(8-10)</t>
+  </si>
+  <si>
+    <t>화(4-5),금(3)</t>
+  </si>
+  <si>
+    <t>목(2-3),금(4)</t>
+  </si>
+  <si>
+    <t>월(8-9),수(9)</t>
+  </si>
+  <si>
+    <t>화(7),금(6-7)</t>
+  </si>
+  <si>
+    <t>화(2-3),수(3)</t>
+  </si>
+  <si>
+    <t>목(6),금(1-2)</t>
+  </si>
+  <si>
+    <t>목(4-5),금(5)</t>
+  </si>
+  <si>
+    <t>월(4),목(7-8)</t>
   </si>
   <si>
     <t>월(1-3)</t>
   </si>
   <si>
-    <t>화(4-5)수(7)</t>
-  </si>
-  <si>
-    <t>월(3-4)수(3)</t>
-  </si>
-  <si>
-    <t>수(6-7)목(6)</t>
-  </si>
-  <si>
-    <t>월(3)수(2-3)</t>
-  </si>
-  <si>
-    <t>수(8)목(2-3)</t>
-  </si>
-  <si>
-    <t>월(1-2)월(6)</t>
-  </si>
-  <si>
-    <t>화(6-7)수(5)</t>
-  </si>
-  <si>
-    <t>월(7-8)수(5)</t>
-  </si>
-  <si>
-    <t>화(4-5)수(4)</t>
-  </si>
-  <si>
-    <t>화(7)목(2-3)</t>
-  </si>
-  <si>
-    <t>화(9)목(5-6)</t>
-  </si>
-  <si>
-    <t>수(1-2)수(5)</t>
-  </si>
-  <si>
-    <t>화(1-2)화(5)</t>
-  </si>
-  <si>
-    <t>수(8-9)목(7)</t>
-  </si>
-  <si>
-    <t>화(8)목(6-7)</t>
-  </si>
-  <si>
-    <t>화(6)목(2-3)</t>
-  </si>
-  <si>
-    <t>화(6)수(5-6)</t>
-  </si>
-  <si>
-    <t>월(2-3)화(5)</t>
-  </si>
-  <si>
-    <t>월(5)목(2-3)</t>
-  </si>
-  <si>
-    <t>화(4)목(2-3)</t>
+    <t>화(4-5),수(7)</t>
+  </si>
+  <si>
+    <t>월(3-4),수(3)</t>
+  </si>
+  <si>
+    <t>수(6-7),목(6)</t>
+  </si>
+  <si>
+    <t>월(3),수(2-3)</t>
+  </si>
+  <si>
+    <t>수(8),목(2-3)</t>
+  </si>
+  <si>
+    <t>월(1-2),월(6)</t>
+  </si>
+  <si>
+    <t>화(6-7),수(5)</t>
+  </si>
+  <si>
+    <t>월(7-8),수(5)</t>
+  </si>
+  <si>
+    <t>화(4-5),수(4)</t>
+  </si>
+  <si>
+    <t>화(7),목(2-3)</t>
+  </si>
+  <si>
+    <t>화(9),목(5-6)</t>
+  </si>
+  <si>
+    <t>수(1-2),수(5)</t>
+  </si>
+  <si>
+    <t>화(1-2),화(5)</t>
+  </si>
+  <si>
+    <t>수(8-9),목(7)</t>
+  </si>
+  <si>
+    <t>화(8),목(6-7)</t>
+  </si>
+  <si>
+    <t>화(6),목(2-3)</t>
+  </si>
+  <si>
+    <t>화(6),수(5-6)</t>
+  </si>
+  <si>
+    <t>월(2-3),화(5)</t>
+  </si>
+  <si>
+    <t>월(5),목(2-3)</t>
+  </si>
+  <si>
+    <t>화(4),목(2-3)</t>
   </si>
   <si>
     <t>목(4-6)</t>
   </si>
   <si>
-    <t>월(6)화(2-3)</t>
-  </si>
-  <si>
-    <t>화(9)수(2-3)</t>
-  </si>
-  <si>
-    <t>화(2-3)수(5)</t>
-  </si>
-  <si>
-    <t>화(7)수(7-8)</t>
-  </si>
-  <si>
-    <t>수(4)목(7-8)</t>
-  </si>
-  <si>
-    <t>월(2-3)화(8)</t>
-  </si>
-  <si>
-    <t>화(4-5)목(9)</t>
-  </si>
-  <si>
-    <t>화(4)목(8-9)</t>
-  </si>
-  <si>
-    <t>수(3-4)목(7)</t>
-  </si>
-  <si>
-    <t>화(9-10)금(5)</t>
-  </si>
-  <si>
-    <t>수(1-2)금(1)</t>
-  </si>
-  <si>
-    <t>화(5)목(3-4)</t>
-  </si>
-  <si>
-    <t>화(3)수(8-9)</t>
-  </si>
-  <si>
-    <t>월(8)화(1-2)</t>
-  </si>
-  <si>
-    <t>수(7)목(1-2)</t>
-  </si>
-  <si>
-    <t>월(9-10)목(7)</t>
-  </si>
-  <si>
-    <t>화(8)목(8-9)</t>
-  </si>
-  <si>
-    <t>수(5-6)금(4)</t>
+    <t>월(6),화(2-3)</t>
+  </si>
+  <si>
+    <t>화(9),수(2-3)</t>
+  </si>
+  <si>
+    <t>화(2-3),수(5)</t>
+  </si>
+  <si>
+    <t>화(7),수(7-8)</t>
+  </si>
+  <si>
+    <t>수(4),목(7-8)</t>
+  </si>
+  <si>
+    <t>월(2-3),화(8)</t>
+  </si>
+  <si>
+    <t>화(4-5),목(9)</t>
+  </si>
+  <si>
+    <t>화(4),목(8-9)</t>
+  </si>
+  <si>
+    <t>수(3-4),목(7)</t>
+  </si>
+  <si>
+    <t>화(9-10),금(5)</t>
+  </si>
+  <si>
+    <t>수(1-2),금(1)</t>
+  </si>
+  <si>
+    <t>화(5),목(3-4)</t>
+  </si>
+  <si>
+    <t>화(3),수(8-9)</t>
+  </si>
+  <si>
+    <t>월(8),화(1-2)</t>
+  </si>
+  <si>
+    <t>수(7),목(1-2)</t>
+  </si>
+  <si>
+    <t>월(9-10),목(7)</t>
+  </si>
+  <si>
+    <t>화(8),목(8-9)</t>
+  </si>
+  <si>
+    <t>수(5-6),금(4)</t>
   </si>
   <si>
     <t>화(4-6)</t>
   </si>
   <si>
-    <t>월(9-10)금(5)</t>
-  </si>
-  <si>
-    <t>수(6)금(5-6)</t>
-  </si>
-  <si>
-    <t>월(3)수(5-6)</t>
-  </si>
-  <si>
-    <t>월(5-6)화(3)</t>
-  </si>
-  <si>
-    <t>수(1-2)목(3)</t>
-  </si>
-  <si>
-    <t>수(5-6)목(1)</t>
-  </si>
-  <si>
-    <t>화(1-2)수(7)</t>
-  </si>
-  <si>
-    <t>월(5)화(1-2)</t>
-  </si>
-  <si>
-    <t>월(9)화(5-6)</t>
-  </si>
-  <si>
-    <t>월(7)수(2-3)</t>
-  </si>
-  <si>
-    <t>월(4)목(3-4)</t>
-  </si>
-  <si>
-    <t>수(2)목(5-6)</t>
-  </si>
-  <si>
-    <t>월(6)목(1-2)</t>
-  </si>
-  <si>
-    <t>화(7-8)수(5)</t>
-  </si>
-  <si>
-    <t>월(7-8)화(7)</t>
-  </si>
-  <si>
-    <t>월(4)월(7-8)</t>
-  </si>
-  <si>
-    <t>화(2)목(2-3)</t>
-  </si>
-  <si>
-    <t>월(2)화(1-2)</t>
-  </si>
-  <si>
-    <t>수(8-9)목(3)</t>
-  </si>
-  <si>
-    <t>화(5)목(1-2)</t>
-  </si>
-  <si>
-    <t>월(2-3)화(1)</t>
-  </si>
-  <si>
-    <t>월(9)금(8-9)</t>
-  </si>
-  <si>
-    <t>수(7)목(7-8)</t>
-  </si>
-  <si>
-    <t>화(8)목(7-8)</t>
-  </si>
-  <si>
-    <t>월(9)화(8-9)</t>
-  </si>
-  <si>
-    <t>월(5)화(6-7)</t>
+    <t>월(9-10),금(5)</t>
+  </si>
+  <si>
+    <t>수(6),금(5-6)</t>
+  </si>
+  <si>
+    <t>월(3),수(5-6)</t>
+  </si>
+  <si>
+    <t>월(5-6),화(3)</t>
+  </si>
+  <si>
+    <t>수(1-2),목(3)</t>
+  </si>
+  <si>
+    <t>수(5-6),목(1)</t>
+  </si>
+  <si>
+    <t>화(1-2),수(7)</t>
+  </si>
+  <si>
+    <t>월(5),화(1-2)</t>
+  </si>
+  <si>
+    <t>월(9),화(5-6)</t>
+  </si>
+  <si>
+    <t>월(7),수(2-3)</t>
+  </si>
+  <si>
+    <t>월(4),목(3-4)</t>
+  </si>
+  <si>
+    <t>수(2),목(5-6)</t>
+  </si>
+  <si>
+    <t>월(6),목(1-2)</t>
+  </si>
+  <si>
+    <t>화(7-8),수(5)</t>
+  </si>
+  <si>
+    <t>월(7-8),화(7)</t>
+  </si>
+  <si>
+    <t>월(4),월(7-8)</t>
+  </si>
+  <si>
+    <t>화(2),목(2-3)</t>
+  </si>
+  <si>
+    <t>월(2),화(1-2)</t>
+  </si>
+  <si>
+    <t>수(8-9),목(3)</t>
+  </si>
+  <si>
+    <t>화(5),목(1-2)</t>
+  </si>
+  <si>
+    <t>월(2-3),화(1)</t>
+  </si>
+  <si>
+    <t>월(9),금(8-9)</t>
+  </si>
+  <si>
+    <t>수(7),목(7-8)</t>
+  </si>
+  <si>
+    <t>화(8),목(7-8)</t>
+  </si>
+  <si>
+    <t>월(9),화(8-9)</t>
+  </si>
+  <si>
+    <t>월(5),화(6-7)</t>
   </si>
   <si>
     <t>목(1-3)</t>
@@ -9826,484 +9826,484 @@
     <t>수(4-6)</t>
   </si>
   <si>
-    <t>월(2-3)화(3)</t>
-  </si>
-  <si>
-    <t>월(8)목(8-9)</t>
-  </si>
-  <si>
-    <t>월(3-4)화(3-4)</t>
-  </si>
-  <si>
-    <t>화(6-7)수(5-6)</t>
-  </si>
-  <si>
-    <t>화(7)수(5-6)</t>
+    <t>월(2-3),화(3)</t>
+  </si>
+  <si>
+    <t>월(8),목(8-9)</t>
+  </si>
+  <si>
+    <t>월(3-4),화(3-4)</t>
+  </si>
+  <si>
+    <t>화(6-7),수(5-6)</t>
+  </si>
+  <si>
+    <t>화(7),수(5-6)</t>
   </si>
   <si>
     <t>금(3-5)</t>
   </si>
   <si>
-    <t>수(7)금(1-2)</t>
-  </si>
-  <si>
-    <t>수(3)목(7-8)</t>
-  </si>
-  <si>
-    <t>월(1-2)수(4)</t>
-  </si>
-  <si>
-    <t>화(6)목(5-6)</t>
-  </si>
-  <si>
-    <t>월(8-10)수(10)</t>
-  </si>
-  <si>
-    <t>월(7-8)목(9)</t>
-  </si>
-  <si>
-    <t>수(8)금(7-8)</t>
+    <t>수(7),금(1-2)</t>
+  </si>
+  <si>
+    <t>수(3),목(7-8)</t>
+  </si>
+  <si>
+    <t>월(1-2),수(4)</t>
+  </si>
+  <si>
+    <t>화(6),목(5-6)</t>
+  </si>
+  <si>
+    <t>월(8-10),수(10)</t>
+  </si>
+  <si>
+    <t>월(7-8),목(9)</t>
+  </si>
+  <si>
+    <t>수(8),금(7-8)</t>
   </si>
   <si>
     <t>월(4-6)</t>
   </si>
   <si>
-    <t>화(7-8)수(9)</t>
-  </si>
-  <si>
-    <t>화(1)목(2-3)</t>
-  </si>
-  <si>
-    <t>화(4-5)수(5)</t>
-  </si>
-  <si>
-    <t>월(8-9)월(12)</t>
-  </si>
-  <si>
-    <t>화(7-8)수(4)</t>
-  </si>
-  <si>
-    <t>수(4-5)목(4)</t>
-  </si>
-  <si>
-    <t>월(3-4)화(1)</t>
-  </si>
-  <si>
-    <t>수(7)목(2-3)</t>
-  </si>
-  <si>
-    <t>화(5-6)수(6)</t>
-  </si>
-  <si>
-    <t>월(8)화(6-7)</t>
-  </si>
-  <si>
-    <t>월(1-2)화(4)</t>
-  </si>
-  <si>
-    <t>화(4)목(5-6)</t>
-  </si>
-  <si>
-    <t>월(6-7)목(10)</t>
-  </si>
-  <si>
-    <t>월(2-3)화(4)</t>
-  </si>
-  <si>
-    <t>수(7)목(3-4)</t>
-  </si>
-  <si>
-    <t>월(5)화(8-9)</t>
+    <t>화(7-8),수(9)</t>
+  </si>
+  <si>
+    <t>화(1),목(2-3)</t>
+  </si>
+  <si>
+    <t>화(4-5),수(5)</t>
+  </si>
+  <si>
+    <t>월(8-9),월(12)</t>
+  </si>
+  <si>
+    <t>화(7-8),수(4)</t>
+  </si>
+  <si>
+    <t>수(4-5),목(4)</t>
+  </si>
+  <si>
+    <t>월(3-4),화(1)</t>
+  </si>
+  <si>
+    <t>수(7),목(2-3)</t>
+  </si>
+  <si>
+    <t>화(5-6),수(6)</t>
+  </si>
+  <si>
+    <t>월(8),화(6-7)</t>
+  </si>
+  <si>
+    <t>월(1-2),화(4)</t>
+  </si>
+  <si>
+    <t>화(4),목(5-6)</t>
+  </si>
+  <si>
+    <t>월(6-7),목(10)</t>
+  </si>
+  <si>
+    <t>월(2-3),화(4)</t>
+  </si>
+  <si>
+    <t>수(7),목(3-4)</t>
+  </si>
+  <si>
+    <t>월(5),화(8-9)</t>
   </si>
   <si>
     <t>금(7-9)</t>
   </si>
   <si>
-    <t>월(3)화(3-4)</t>
-  </si>
-  <si>
-    <t>월(9)수(3-4)</t>
-  </si>
-  <si>
-    <t>월(7)화(5-6)</t>
-  </si>
-  <si>
-    <t>수(5-6)금(2-3)</t>
-  </si>
-  <si>
-    <t>화(2)수(2-3)</t>
-  </si>
-  <si>
-    <t>화(6)금(2-3)</t>
-  </si>
-  <si>
-    <t>월(7-8)목(3)</t>
-  </si>
-  <si>
-    <t>목(2)금(2-3)</t>
-  </si>
-  <si>
-    <t>월(8)화(5-6)</t>
-  </si>
-  <si>
-    <t>월(9)화(6-7)</t>
-  </si>
-  <si>
-    <t>화(4-5)목(2)</t>
-  </si>
-  <si>
-    <t>화(4-5)목(3-4)</t>
-  </si>
-  <si>
-    <t>화(8-9)목(7-8)</t>
-  </si>
-  <si>
-    <t>월(4)수(3-4)</t>
-  </si>
-  <si>
-    <t>월(9)화(1-2)</t>
-  </si>
-  <si>
-    <t>월(7)목(5-6)</t>
-  </si>
-  <si>
-    <t>월(9-10)수(6)</t>
-  </si>
-  <si>
-    <t>월(4)화(5-6)</t>
-  </si>
-  <si>
-    <t>수(3)목(1-2)</t>
-  </si>
-  <si>
-    <t>화(7-8)목(2)</t>
-  </si>
-  <si>
-    <t>화(1-2)목(3-4)</t>
-  </si>
-  <si>
-    <t>목(1-2)금(3-4)</t>
-  </si>
-  <si>
-    <t>월(3-4)화(8-9)</t>
-  </si>
-  <si>
-    <t>월(2)목(2-3)</t>
-  </si>
-  <si>
-    <t>화(8)수(6-7)</t>
-  </si>
-  <si>
-    <t>화(6-7)수(3)</t>
-  </si>
-  <si>
-    <t>월(8-9)수(4)</t>
-  </si>
-  <si>
-    <t>화(8-9)수(8)</t>
-  </si>
-  <si>
-    <t>월(1-2)화(2)</t>
-  </si>
-  <si>
-    <t>월(5-6)화(7)</t>
-  </si>
-  <si>
-    <t>화(5)수(7-8)</t>
-  </si>
-  <si>
-    <t>화(3)금(2-3)</t>
-  </si>
-  <si>
-    <t>수(5)금(2-3)</t>
-  </si>
-  <si>
-    <t>수(7-8)목(2)</t>
-  </si>
-  <si>
-    <t>월(4-5)목(4)</t>
-  </si>
-  <si>
-    <t>화(6)수(8-9)</t>
-  </si>
-  <si>
-    <t>월(6)수(2-3)</t>
-  </si>
-  <si>
-    <t>월(7)수(5-6)</t>
-  </si>
-  <si>
-    <t>월(5-6)화(9)</t>
-  </si>
-  <si>
-    <t>월(5)화(5-6)</t>
-  </si>
-  <si>
-    <t>월(8)수(8-9)</t>
-  </si>
-  <si>
-    <t>수(2-3)목(8)</t>
-  </si>
-  <si>
-    <t>화(4)수(3-4)</t>
-  </si>
-  <si>
-    <t>화(3-4)수(5)</t>
-  </si>
-  <si>
-    <t>월(4-5)수(4)</t>
-  </si>
-  <si>
-    <t>화(4-5)금(6)</t>
-  </si>
-  <si>
-    <t>화(8-9)수(2)</t>
+    <t>월(3),화(3-4)</t>
+  </si>
+  <si>
+    <t>월(9),수(3-4)</t>
+  </si>
+  <si>
+    <t>월(7),화(5-6)</t>
+  </si>
+  <si>
+    <t>수(5-6),금(2-3)</t>
+  </si>
+  <si>
+    <t>화(2),수(2-3)</t>
+  </si>
+  <si>
+    <t>화(6),금(2-3)</t>
+  </si>
+  <si>
+    <t>월(7-8),목(3)</t>
+  </si>
+  <si>
+    <t>목(2),금(2-3)</t>
+  </si>
+  <si>
+    <t>월(8),화(5-6)</t>
+  </si>
+  <si>
+    <t>월(9),화(6-7)</t>
+  </si>
+  <si>
+    <t>화(4-5),목(2)</t>
+  </si>
+  <si>
+    <t>화(4-5),목(3-4)</t>
+  </si>
+  <si>
+    <t>화(8-9),목(7-8)</t>
+  </si>
+  <si>
+    <t>월(4),수(3-4)</t>
+  </si>
+  <si>
+    <t>월(9),화(1-2)</t>
+  </si>
+  <si>
+    <t>월(7),목(5-6)</t>
+  </si>
+  <si>
+    <t>월(9-10),수(6)</t>
+  </si>
+  <si>
+    <t>월(4),화(5-6)</t>
+  </si>
+  <si>
+    <t>수(3),목(1-2)</t>
+  </si>
+  <si>
+    <t>화(7-8),목(2)</t>
+  </si>
+  <si>
+    <t>화(1-2),목(3-4)</t>
+  </si>
+  <si>
+    <t>목(1-2),금(3-4)</t>
+  </si>
+  <si>
+    <t>월(3-4),화(8-9)</t>
+  </si>
+  <si>
+    <t>월(2),목(2-3)</t>
+  </si>
+  <si>
+    <t>화(8),수(6-7)</t>
+  </si>
+  <si>
+    <t>화(6-7),수(3)</t>
+  </si>
+  <si>
+    <t>월(8-9),수(4)</t>
+  </si>
+  <si>
+    <t>화(8-9),수(8)</t>
+  </si>
+  <si>
+    <t>월(1-2),화(2)</t>
+  </si>
+  <si>
+    <t>월(5-6),화(7)</t>
+  </si>
+  <si>
+    <t>화(5),수(7-8)</t>
+  </si>
+  <si>
+    <t>화(3),금(2-3)</t>
+  </si>
+  <si>
+    <t>수(5),금(2-3)</t>
+  </si>
+  <si>
+    <t>수(7-8),목(2)</t>
+  </si>
+  <si>
+    <t>월(4-5),목(4)</t>
+  </si>
+  <si>
+    <t>화(6),수(8-9)</t>
+  </si>
+  <si>
+    <t>월(6),수(2-3)</t>
+  </si>
+  <si>
+    <t>월(7),수(5-6)</t>
+  </si>
+  <si>
+    <t>월(5-6),화(9)</t>
+  </si>
+  <si>
+    <t>월(5),화(5-6)</t>
+  </si>
+  <si>
+    <t>월(8),수(8-9)</t>
+  </si>
+  <si>
+    <t>수(2-3),목(8)</t>
+  </si>
+  <si>
+    <t>화(4),수(3-4)</t>
+  </si>
+  <si>
+    <t>화(3-4),수(5)</t>
+  </si>
+  <si>
+    <t>월(4-5),수(4)</t>
+  </si>
+  <si>
+    <t>화(4-5),금(6)</t>
+  </si>
+  <si>
+    <t>화(8-9),수(2)</t>
   </si>
   <si>
     <t>월(3-5)</t>
   </si>
   <si>
-    <t>월(9)수(5-6)</t>
-  </si>
-  <si>
-    <t>화(6-7)목(3)</t>
-  </si>
-  <si>
-    <t>화(7-8)수(8)</t>
-  </si>
-  <si>
-    <t>수(1-2)금(4)</t>
-  </si>
-  <si>
-    <t>화(6)금(6-7)</t>
-  </si>
-  <si>
-    <t>화(7-8)금(5)</t>
-  </si>
-  <si>
-    <t>목(5)금(6-7)</t>
-  </si>
-  <si>
-    <t>월(7)수(4-5)</t>
+    <t>월(9),수(5-6)</t>
+  </si>
+  <si>
+    <t>화(6-7),목(3)</t>
+  </si>
+  <si>
+    <t>화(7-8),수(8)</t>
+  </si>
+  <si>
+    <t>수(1-2),금(4)</t>
+  </si>
+  <si>
+    <t>화(6),금(6-7)</t>
+  </si>
+  <si>
+    <t>화(7-8),금(5)</t>
+  </si>
+  <si>
+    <t>목(5),금(6-7)</t>
+  </si>
+  <si>
+    <t>월(7),수(4-5)</t>
   </si>
   <si>
     <t>화(3-5)</t>
   </si>
   <si>
-    <t>월(5)화(3-4)</t>
-  </si>
-  <si>
-    <t>월(7-8)수(9)</t>
-  </si>
-  <si>
-    <t>목(6-7)목(9)</t>
-  </si>
-  <si>
-    <t>수(4)목(5-6)</t>
-  </si>
-  <si>
-    <t>수(7-8)수(9)</t>
-  </si>
-  <si>
-    <t>화(4)목(4-5)</t>
-  </si>
-  <si>
-    <t>화(1)화(5-6)</t>
-  </si>
-  <si>
-    <t>수(2-3)목(3)</t>
-  </si>
-  <si>
-    <t>수(9-10)목(9-10)</t>
-  </si>
-  <si>
-    <t>월(9-10)화(5-6)</t>
-  </si>
-  <si>
-    <t>수(1-2)목(5-6)</t>
-  </si>
-  <si>
-    <t>월(8-9)화(8-9)</t>
-  </si>
-  <si>
-    <t>화(3-4)수(3-4)</t>
-  </si>
-  <si>
-    <t>화(5-6)금(3-4)</t>
-  </si>
-  <si>
-    <t>목(5-6)금(6-7)</t>
-  </si>
-  <si>
-    <t>화(1-2)목(4-5)</t>
-  </si>
-  <si>
-    <t>월(9-10)금(4-5)</t>
-  </si>
-  <si>
-    <t>화(8-9)금(3-4)</t>
-  </si>
-  <si>
-    <t>목(7-8)금(5-6)</t>
-  </si>
-  <si>
-    <t>월(4-5)수(5-6)</t>
-  </si>
-  <si>
-    <t>목(8-9)금(1-2)</t>
-  </si>
-  <si>
-    <t>목(9-10)금(1-2)</t>
-  </si>
-  <si>
-    <t>월(7-8)금(2-3)</t>
-  </si>
-  <si>
-    <t>목(5-6)금(3-4)</t>
-  </si>
-  <si>
-    <t>목(10-11)금(3-4)</t>
-  </si>
-  <si>
-    <t>월(2-3)수(3-4)</t>
-  </si>
-  <si>
-    <t>화(6-7)금(5-6)</t>
-  </si>
-  <si>
-    <t>화(3-4)금(7-8)</t>
-  </si>
-  <si>
-    <t>목(9-10)금(2-3)</t>
-  </si>
-  <si>
-    <t>수(9-10)목(3-4)</t>
-  </si>
-  <si>
-    <t>월(7-8)화(3-4)</t>
-  </si>
-  <si>
-    <t>목(9-10)금(3-4)</t>
-  </si>
-  <si>
-    <t>목(7-8)금(6-7)</t>
-  </si>
-  <si>
-    <t>월(5-6)화(5-6)</t>
-  </si>
-  <si>
-    <t>수(5-6)목(1-2)</t>
-  </si>
-  <si>
-    <t>목(6-8)금(8)</t>
-  </si>
-  <si>
-    <t>월(9-10)화(1-2)</t>
-  </si>
-  <si>
-    <t>목(5-6)금(8-9)</t>
-  </si>
-  <si>
-    <t>월(2-3)수(2-3)</t>
-  </si>
-  <si>
-    <t>월(6-7)수(5-6)</t>
-  </si>
-  <si>
-    <t>수(3-4)목(2-3)</t>
-  </si>
-  <si>
-    <t>월(2-3)화(8-9)</t>
-  </si>
-  <si>
-    <t>화(6-7)수(2-3)</t>
-  </si>
-  <si>
-    <t>월(5-6)화(6-7)</t>
-  </si>
-  <si>
-    <t>월(6-7)화(7-8)</t>
-  </si>
-  <si>
-    <t>화(8-9)수(3-4)</t>
-  </si>
-  <si>
-    <t>월(4-5)화(2-3)</t>
-  </si>
-  <si>
-    <t>월(5)수(7-8)</t>
-  </si>
-  <si>
-    <t>화(10)수(10-11)</t>
-  </si>
-  <si>
-    <t>화(2)수(5-6)</t>
-  </si>
-  <si>
-    <t>수(4)목(6-7)</t>
-  </si>
-  <si>
-    <t>수(1-2)목(9)</t>
-  </si>
-  <si>
-    <t>월(6)화(5-6)</t>
-  </si>
-  <si>
-    <t>월(9)화(9-10)</t>
-  </si>
-  <si>
-    <t>월(8-9)화(10)</t>
-  </si>
-  <si>
-    <t>월(4-5)화(4)</t>
-  </si>
-  <si>
-    <t>월(9)금(2-3)</t>
-  </si>
-  <si>
-    <t>월(10)금(4-5)</t>
-  </si>
-  <si>
-    <t>화(2)수(1-2)</t>
-  </si>
-  <si>
-    <t>화(6-7)수(8)</t>
-  </si>
-  <si>
-    <t>화(8-9)목(3)</t>
+    <t>월(5),화(3-4)</t>
+  </si>
+  <si>
+    <t>월(7-8),수(9)</t>
+  </si>
+  <si>
+    <t>목(6-7),목(9)</t>
+  </si>
+  <si>
+    <t>수(4),목(5-6)</t>
+  </si>
+  <si>
+    <t>수(7-8),수(9)</t>
+  </si>
+  <si>
+    <t>화(4),목(4-5)</t>
+  </si>
+  <si>
+    <t>화(1),화(5-6)</t>
+  </si>
+  <si>
+    <t>수(2-3),목(3)</t>
+  </si>
+  <si>
+    <t>수(9-10),목(9-10)</t>
+  </si>
+  <si>
+    <t>월(9-10),화(5-6)</t>
+  </si>
+  <si>
+    <t>수(1-2),목(5-6)</t>
+  </si>
+  <si>
+    <t>월(8-9),화(8-9)</t>
+  </si>
+  <si>
+    <t>화(3-4),수(3-4)</t>
+  </si>
+  <si>
+    <t>화(5-6),금(3-4)</t>
+  </si>
+  <si>
+    <t>목(5-6),금(6-7)</t>
+  </si>
+  <si>
+    <t>화(1-2),목(4-5)</t>
+  </si>
+  <si>
+    <t>월(9-10),금(4-5)</t>
+  </si>
+  <si>
+    <t>화(8-9),금(3-4)</t>
+  </si>
+  <si>
+    <t>목(7-8),금(5-6)</t>
+  </si>
+  <si>
+    <t>월(4-5),수(5-6)</t>
+  </si>
+  <si>
+    <t>목(8-9),금(1-2)</t>
+  </si>
+  <si>
+    <t>목(9-10),금(1-2)</t>
+  </si>
+  <si>
+    <t>월(7-8),금(2-3)</t>
+  </si>
+  <si>
+    <t>목(5-6),금(3-4)</t>
+  </si>
+  <si>
+    <t>목(10-11),금(3-4)</t>
+  </si>
+  <si>
+    <t>월(2-3),수(3-4)</t>
+  </si>
+  <si>
+    <t>화(6-7),금(5-6)</t>
+  </si>
+  <si>
+    <t>화(3-4),금(7-8)</t>
+  </si>
+  <si>
+    <t>목(9-10),금(2-3)</t>
+  </si>
+  <si>
+    <t>수(9-10),목(3-4)</t>
+  </si>
+  <si>
+    <t>월(7-8),화(3-4)</t>
+  </si>
+  <si>
+    <t>목(9-10),금(3-4)</t>
+  </si>
+  <si>
+    <t>목(7-8),금(6-7)</t>
+  </si>
+  <si>
+    <t>월(5-6),화(5-6)</t>
+  </si>
+  <si>
+    <t>수(5-6),목(1-2)</t>
+  </si>
+  <si>
+    <t>목(6-8),금(8)</t>
+  </si>
+  <si>
+    <t>월(9-10),화(1-2)</t>
+  </si>
+  <si>
+    <t>목(5-6),금(8-9)</t>
+  </si>
+  <si>
+    <t>월(2-3),수(2-3)</t>
+  </si>
+  <si>
+    <t>월(6-7),수(5-6)</t>
+  </si>
+  <si>
+    <t>수(3-4),목(2-3)</t>
+  </si>
+  <si>
+    <t>월(2-3),화(8-9)</t>
+  </si>
+  <si>
+    <t>화(6-7),수(2-3)</t>
+  </si>
+  <si>
+    <t>월(5-6),화(6-7)</t>
+  </si>
+  <si>
+    <t>월(6-7),화(7-8)</t>
+  </si>
+  <si>
+    <t>화(8-9),수(3-4)</t>
+  </si>
+  <si>
+    <t>월(4-5),화(2-3)</t>
+  </si>
+  <si>
+    <t>월(5),수(7-8)</t>
+  </si>
+  <si>
+    <t>화(10),수(10-11)</t>
+  </si>
+  <si>
+    <t>화(2),수(5-6)</t>
+  </si>
+  <si>
+    <t>수(4),목(6-7)</t>
+  </si>
+  <si>
+    <t>수(1-2),목(9)</t>
+  </si>
+  <si>
+    <t>월(6),화(5-6)</t>
+  </si>
+  <si>
+    <t>월(9),화(9-10)</t>
+  </si>
+  <si>
+    <t>월(8-9),화(10)</t>
+  </si>
+  <si>
+    <t>월(4-5),화(4)</t>
+  </si>
+  <si>
+    <t>월(9),금(2-3)</t>
+  </si>
+  <si>
+    <t>월(10),금(4-5)</t>
+  </si>
+  <si>
+    <t>화(2),수(1-2)</t>
+  </si>
+  <si>
+    <t>화(6-7),수(8)</t>
+  </si>
+  <si>
+    <t>화(8-9),목(3)</t>
   </si>
   <si>
     <t>월(10-12)</t>
   </si>
   <si>
-    <t>수(7)목(5-6)</t>
-  </si>
-  <si>
-    <t>화(9-10)목(3)</t>
-  </si>
-  <si>
-    <t>화(11-13)목(11-13)</t>
-  </si>
-  <si>
-    <t>화(5-6)수(7)</t>
-  </si>
-  <si>
-    <t>수(5-6)목(5)</t>
-  </si>
-  <si>
-    <t>월(4-5)화(8)</t>
-  </si>
-  <si>
-    <t>월(6)수(8-9)</t>
-  </si>
-  <si>
-    <t>월(11-13)화(11-13)수(13-17)목(10-14)토(1-16)</t>
-  </si>
-  <si>
-    <t>화(9-13)수(7-13)금(7-13)토(1-13)</t>
-  </si>
-  <si>
-    <t>월(11-13)화(12-15)수(10-14)금(7-13)토(1-13)</t>
+    <t>수(7),목(5-6)</t>
+  </si>
+  <si>
+    <t>화(9-10),목(3)</t>
+  </si>
+  <si>
+    <t>화(11-13),목(11-13)</t>
+  </si>
+  <si>
+    <t>화(5-6),수(7)</t>
+  </si>
+  <si>
+    <t>수(5-6),목(5)</t>
+  </si>
+  <si>
+    <t>월(4-5),화(8)</t>
+  </si>
+  <si>
+    <t>월(6),수(8-9)</t>
+  </si>
+  <si>
+    <t>월(11-13),화(11-13),수(13-17),목(10-14),토(1-16)</t>
+  </si>
+  <si>
+    <t>화(9-13),수(7-13),금(7-13),토(1-13)</t>
+  </si>
+  <si>
+    <t>월(11-13),화(12-15),수(10-14),금(7-13),토(1-13)</t>
   </si>
   <si>
     <t xml:space="preserve"> 가속기ICT융합관 520호</t>
